--- a/statistics/HistoricalDistanceData/historical_distance/Q170652-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q170652-en.xlsx
@@ -34,15 +34,15 @@
     <t>Itâ€™s been 131 years since the Great White Hurricane. Do you know about it?</t>
   </si>
   <si>
+    <t>NWS Northern Indiana Weather History</t>
+  </si>
+  <si>
+    <t>LibriVox</t>
+  </si>
+  <si>
     <t>NWS Milwaukee</t>
   </si>
   <si>
-    <t>LibriVox</t>
-  </si>
-  <si>
-    <t>NWS Northern Indiana Weather History</t>
-  </si>
-  <si>
     <t>2019-03-11T20:32:57UTC</t>
   </si>
   <si>
@@ -58,13 +58,13 @@
     <t>https://www.bostonglobe.com/metro/2019/03/11/been-years-since-great-white-hurricane-you-know-about/C9pjG4d5ia2nu72RwYFoQO/story.html</t>
   </si>
   <si>
+    <t>http://www.crh.noaa.gov/iwx/program_areas/wxhisttdy/index.php?url=Mar12</t>
+  </si>
+  <si>
+    <t>http://librivox.org/national-geographic-magazine-vol-01-no-1-by-various/</t>
+  </si>
+  <si>
     <t>https://web.archive.org/web/20070324154647/http://www.crh.noaa.gov/mkx/climate/big.php</t>
-  </si>
-  <si>
-    <t>http://librivox.org/national-geographic-magazine-vol-01-no-1-by-various/</t>
-  </si>
-  <si>
-    <t>http://www.crh.noaa.gov/iwx/program_areas/wxhisttdy/index.php?url=Mar12</t>
   </si>
 </sst>
 </file>
